--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.276566968292066</v>
+        <v>0.076721</v>
       </c>
       <c r="H2">
-        <v>0.276566968292066</v>
+        <v>0.230163</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N2">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O2">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P2">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q2">
-        <v>10.17400400278642</v>
+        <v>3.462501690974666</v>
       </c>
       <c r="R2">
-        <v>10.17400400278642</v>
+        <v>31.162515218772</v>
       </c>
       <c r="S2">
-        <v>0.2952017182697281</v>
+        <v>0.05047111424385158</v>
       </c>
       <c r="T2">
-        <v>0.2952017182697281</v>
+        <v>0.05047111424385158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.276566968292066</v>
+        <v>0.076721</v>
       </c>
       <c r="H3">
-        <v>0.276566968292066</v>
+        <v>0.230163</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N3">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q3">
-        <v>1.580231515213738</v>
+        <v>0.4386489162023333</v>
       </c>
       <c r="R3">
-        <v>1.580231515213738</v>
+        <v>3.947840245821</v>
       </c>
       <c r="S3">
-        <v>0.04585088215291751</v>
+        <v>0.006393960649982429</v>
       </c>
       <c r="T3">
-        <v>0.04585088215291751</v>
+        <v>0.00639396064998243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.276566968292066</v>
+        <v>0.076721</v>
       </c>
       <c r="H4">
-        <v>0.276566968292066</v>
+        <v>0.230163</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N4">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q4">
-        <v>3.30682604868759</v>
+        <v>1.087246639061333</v>
       </c>
       <c r="R4">
-        <v>3.30682604868759</v>
+        <v>9.785219751551999</v>
       </c>
       <c r="S4">
-        <v>0.09594853032535849</v>
+        <v>0.01584823755446642</v>
       </c>
       <c r="T4">
-        <v>0.09594853032535849</v>
+        <v>0.01584823755446643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.276566968292066</v>
+        <v>0.076721</v>
       </c>
       <c r="H5">
-        <v>0.276566968292066</v>
+        <v>0.230163</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N5">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q5">
-        <v>4.319569586004278</v>
+        <v>1.22331864663</v>
       </c>
       <c r="R5">
-        <v>4.319569586004278</v>
+        <v>11.00986781967</v>
       </c>
       <c r="S5">
-        <v>0.1253335819039277</v>
+        <v>0.01783168953581556</v>
       </c>
       <c r="T5">
-        <v>0.1253335819039277</v>
+        <v>0.01783168953581556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.276566968292066</v>
+        <v>0.076721</v>
       </c>
       <c r="H6">
-        <v>0.276566968292066</v>
+        <v>0.230163</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1591982918362138</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N6">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q6">
-        <v>7.354151004449146</v>
+        <v>2.188936159814667</v>
       </c>
       <c r="R6">
-        <v>7.354151004449146</v>
+        <v>19.700425438332</v>
       </c>
       <c r="S6">
-        <v>0.2133828542168707</v>
+        <v>0.03190700160016532</v>
       </c>
       <c r="T6">
-        <v>0.2133828542168707</v>
+        <v>0.03190700160016532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.076721</v>
+      </c>
+      <c r="H7">
+        <v>0.230163</v>
+      </c>
+      <c r="I7">
+        <v>0.1591982918362138</v>
+      </c>
+      <c r="J7">
+        <v>0.1591982918362138</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>32.85839333333333</v>
+      </c>
+      <c r="N7">
+        <v>98.57517999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="P7">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="Q7">
+        <v>2.520928794926666</v>
+      </c>
+      <c r="R7">
+        <v>22.68835915434</v>
+      </c>
+      <c r="S7">
+        <v>0.03674628825193252</v>
+      </c>
+      <c r="T7">
+        <v>0.03674628825193252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1277226666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.383168</v>
+      </c>
+      <c r="I8">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="J8">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>45.13108133333333</v>
+      </c>
+      <c r="N8">
+        <v>135.393244</v>
+      </c>
+      <c r="O8">
+        <v>0.3170330137447531</v>
+      </c>
+      <c r="P8">
+        <v>0.317033013744753</v>
+      </c>
+      <c r="Q8">
+        <v>5.764262057443556</v>
+      </c>
+      <c r="R8">
+        <v>51.878358516992</v>
+      </c>
+      <c r="S8">
+        <v>0.08402269653501269</v>
+      </c>
+      <c r="T8">
+        <v>0.08402269653501268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1277226666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.383168</v>
+      </c>
+      <c r="I9">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="J9">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N9">
+        <v>17.152367</v>
+      </c>
+      <c r="O9">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="P9">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="Q9">
+        <v>0.7302486842951111</v>
+      </c>
+      <c r="R9">
+        <v>6.572238158655999</v>
+      </c>
+      <c r="S9">
+        <v>0.01064446116157883</v>
+      </c>
+      <c r="T9">
+        <v>0.01064446116157883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1277226666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.383168</v>
+      </c>
+      <c r="I10">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="J10">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.17143466666666</v>
+      </c>
+      <c r="N10">
+        <v>42.514304</v>
+      </c>
+      <c r="O10">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="P10">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="Q10">
+        <v>1.810013426119111</v>
+      </c>
+      <c r="R10">
+        <v>16.290120835072</v>
+      </c>
+      <c r="S10">
+        <v>0.0263836389309741</v>
+      </c>
+      <c r="T10">
+        <v>0.0263836389309741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1277226666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.383168</v>
+      </c>
+      <c r="I11">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="J11">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.94503</v>
+      </c>
+      <c r="N11">
+        <v>47.83509</v>
+      </c>
+      <c r="O11">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="P11">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="Q11">
+        <v>2.03654175168</v>
+      </c>
+      <c r="R11">
+        <v>18.32887576512</v>
+      </c>
+      <c r="S11">
+        <v>0.02968562634332789</v>
+      </c>
+      <c r="T11">
+        <v>0.02968562634332788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1277226666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.383168</v>
+      </c>
+      <c r="I12">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="J12">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.53112133333333</v>
+      </c>
+      <c r="N12">
+        <v>85.59336400000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="P12">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="Q12">
+        <v>3.644070899683556</v>
+      </c>
+      <c r="R12">
+        <v>32.79663809715201</v>
+      </c>
+      <c r="S12">
+        <v>0.05311775563028005</v>
+      </c>
+      <c r="T12">
+        <v>0.05311775563028004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1277226666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.383168</v>
+      </c>
+      <c r="I13">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="J13">
+        <v>0.2650282238513505</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.85839333333333</v>
+      </c>
+      <c r="N13">
+        <v>98.57517999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="P13">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="Q13">
+        <v>4.196761618915556</v>
+      </c>
+      <c r="R13">
+        <v>37.77085457024</v>
+      </c>
+      <c r="S13">
+        <v>0.06117404525017697</v>
+      </c>
+      <c r="T13">
+        <v>0.06117404525017695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.276566968292066</v>
-      </c>
-      <c r="H7">
-        <v>0.276566968292066</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.9491093602959</v>
-      </c>
-      <c r="N7">
-        <v>27.9491093602959</v>
-      </c>
-      <c r="O7">
-        <v>0.2242824331311975</v>
-      </c>
-      <c r="P7">
-        <v>0.2242824331311975</v>
-      </c>
-      <c r="Q7">
-        <v>7.729800442240442</v>
-      </c>
-      <c r="R7">
-        <v>7.729800442240442</v>
-      </c>
-      <c r="S7">
-        <v>0.2242824331311975</v>
-      </c>
-      <c r="T7">
-        <v>0.2242824331311975</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2774773333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.8324319999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="J14">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>45.13108133333333</v>
+      </c>
+      <c r="N14">
+        <v>135.393244</v>
+      </c>
+      <c r="O14">
+        <v>0.3170330137447531</v>
+      </c>
+      <c r="P14">
+        <v>0.317033013744753</v>
+      </c>
+      <c r="Q14">
+        <v>12.52285209882311</v>
+      </c>
+      <c r="R14">
+        <v>112.705668889408</v>
+      </c>
+      <c r="S14">
+        <v>0.1825392029658888</v>
+      </c>
+      <c r="T14">
+        <v>0.1825392029658888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2774773333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.8324319999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="J15">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N15">
+        <v>17.152367</v>
+      </c>
+      <c r="O15">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="P15">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="Q15">
+        <v>1.586464351838222</v>
+      </c>
+      <c r="R15">
+        <v>14.278179166544</v>
+      </c>
+      <c r="S15">
+        <v>0.0231250785390622</v>
+      </c>
+      <c r="T15">
+        <v>0.0231250785390622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2774773333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.8324319999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="J16">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.17143466666666</v>
+      </c>
+      <c r="N16">
+        <v>42.514304</v>
+      </c>
+      <c r="O16">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="P16">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="Q16">
+        <v>3.932251900814221</v>
+      </c>
+      <c r="R16">
+        <v>35.39026710732799</v>
+      </c>
+      <c r="S16">
+        <v>0.05731842252638171</v>
+      </c>
+      <c r="T16">
+        <v>0.05731842252638171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2774773333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.8324319999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="J17">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.94503</v>
+      </c>
+      <c r="N17">
+        <v>47.83509</v>
+      </c>
+      <c r="O17">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="P17">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="Q17">
+        <v>4.42438440432</v>
+      </c>
+      <c r="R17">
+        <v>39.81945963888</v>
+      </c>
+      <c r="S17">
+        <v>0.06449198604327375</v>
+      </c>
+      <c r="T17">
+        <v>0.06449198604327373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2774773333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.8324319999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="J18">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>28.53112133333333</v>
+      </c>
+      <c r="N18">
+        <v>85.59336400000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="P18">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="Q18">
+        <v>7.91673946458311</v>
+      </c>
+      <c r="R18">
+        <v>71.25065518124801</v>
+      </c>
+      <c r="S18">
+        <v>0.1153982575654159</v>
+      </c>
+      <c r="T18">
+        <v>0.1153982575654159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2774773333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.8324319999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="J19">
+        <v>0.5757734843124357</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.85839333333333</v>
+      </c>
+      <c r="N19">
+        <v>98.57517999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="P19">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="Q19">
+        <v>9.117459359751109</v>
+      </c>
+      <c r="R19">
+        <v>82.05713423775998</v>
+      </c>
+      <c r="S19">
+        <v>0.1329005366724134</v>
+      </c>
+      <c r="T19">
+        <v>0.1329005366724134</v>
       </c>
     </row>
   </sheetData>
